--- a/tests/resources/cut_down_master_4_2017.xlsx
+++ b/tests/resources/cut_down_master_4_2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDC approval point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Outline Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Business Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outline Business Case</t>
   </si>
 </sst>
 </file>
@@ -463,7 +475,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,6 +857,26 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/cut_down_master_4_2017.xlsx
+++ b/tests/resources/cut_down_master_4_2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t xml:space="preserve">Outline Business Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA DCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departmental DCA</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +327,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +485,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,6 +886,16 @@
       </c>
       <c r="F25" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/cut_down_master_4_2017.xlsx
+++ b/tests/resources/cut_down_master_4_2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Departmental DCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -896,6 +899,11 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
